--- a/src/ExcelFormsTest/ExcelFormsTest/ExcelFormsTest/Resources/Expenses.xlsx
+++ b/src/ExcelFormsTest/ExcelFormsTest/ExcelFormsTest/Resources/Expenses.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="24" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Vendor</t>
   </si>
@@ -47,21 +47,6 @@
   </si>
   <si>
     <t>Sum of Amount</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -149,13 +134,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -181,13 +172,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -203,36 +200,7 @@
         <c:idx val="0"/>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:alpha val="85000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:alpha val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
+        <c:idx val="1"/>
         <c:dLbl>
           <c:idx val="0"/>
           <c:dLblPos val="inEnd"/>
@@ -248,32 +216,99 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="3"/>
+        <c:idx val="2"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:alpha val="85000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:alpha val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="diamond"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -291,24 +326,99 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -345,7 +455,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="65"/>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
         <c:axId val="406334384"/>
         <c:axId val="406334056"/>
       </c:barChart>
@@ -355,18 +466,18 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -378,11 +489,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -406,28 +516,16 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="95000"/>
-                      <a:lumOff val="5000"/>
-                      <a:alpha val="42000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                      <a:alpha val="36000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -449,42 +547,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -493,30 +555,25 @@
     <a:gradFill flip="none" rotWithShape="1">
       <a:gsLst>
         <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
         </a:gs>
         <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:gs>
       </a:gsLst>
       <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
       </a:path>
       <a:tileRect/>
     </a:gradFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -541,7 +598,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -561,41 +617,39 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea>
     <cs:lnRef idx="0"/>
@@ -608,160 +662,124 @@
       <a:gradFill flip="none" rotWithShape="1">
         <a:gsLst>
           <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
           </a:gs>
           <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
             </a:schemeClr>
           </a:gs>
         </a:gsLst>
         <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
         </a:path>
         <a:tileRect/>
       </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
     </cs:spPr>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -777,17 +795,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -799,20 +816,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -823,14 +840,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -842,14 +859,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -861,7 +877,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -869,28 +885,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -900,28 +904,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -930,14 +922,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -949,14 +941,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -967,19 +959,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea>
@@ -987,7 +970,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -995,7 +978,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1003,17 +986,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1026,14 +1008,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1045,12 +1027,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1059,7 +1048,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -1074,9 +1063,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1086,7 +1074,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1094,9 +1082,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1107,16 +1095,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1124,7 +1106,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -1166,9 +1148,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="42531.657463541669" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Author" refreshedDate="42531.657463541669" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1">
   <cacheSource type="worksheet">
-    <worksheetSource name="Table1"/>
+    <worksheetSource name="Table1" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Vendor" numFmtId="0">
@@ -1209,7 +1191,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -1243,7 +1225,7 @@
     <dataField name="Sum of Amount" fld="2" baseField="1" baseItem="2" numFmtId="164"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="0" format="3" series="1">
+    <chartFormat chart="0" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -1574,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1610,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
